--- a/Milestone6+/Team_GSSK_Task_List.xlsx
+++ b/Milestone6+/Team_GSSK_Task_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karki\Documents\GitHub\Team-SoundsGood\Milestone6+\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB29976F-37B1-436F-8DAE-FB65F6302581}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CF2CE8-2F37-47AE-8238-3ECDB43479B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="3564" windowWidth="23040" windowHeight="12204" xr2:uid="{E802A6FB-4AA0-4E80-A6E5-1668C5ED8C86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E802A6FB-4AA0-4E80-A6E5-1668C5ED8C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>Milestones</t>
   </si>
@@ -69,15 +69,6 @@
     <t>Back End Development</t>
   </si>
   <si>
-    <t>Database Side Development</t>
-  </si>
-  <si>
-    <t>Admin Side</t>
-  </si>
-  <si>
-    <t>User Side</t>
-  </si>
-  <si>
     <t>Task Lists</t>
   </si>
   <si>
@@ -90,15 +81,6 @@
     <t>Finish up All Backend Side</t>
   </si>
   <si>
-    <t>Main Website</t>
-  </si>
-  <si>
-    <t>Main Products</t>
-  </si>
-  <si>
-    <t>User logon</t>
-  </si>
-  <si>
     <t>Member assigned</t>
   </si>
   <si>
@@ -112,13 +94,43 @@
   </si>
   <si>
     <t>Milestone 8</t>
+  </si>
+  <si>
+    <t>Login/Logout</t>
+  </si>
+  <si>
+    <t>HTML/CSS</t>
+  </si>
+  <si>
+    <t>Products (Add/Delete/View)</t>
+  </si>
+  <si>
+    <t>User Side (Settings/About)</t>
+  </si>
+  <si>
+    <t>Main Website (Home)</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Carts (Add/Delete/View)</t>
+  </si>
+  <si>
+    <t>Admin Side (Add Users/Orders/Delete/View)</t>
+  </si>
+  <si>
+    <t>Database Development</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,16 +146,123 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,17 +270,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="8"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="6" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
+    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -473,211 +632,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6908815F-E96C-4C22-B06D-E0318B3ABEAA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.21875" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
     <col min="3" max="3" width="19.21875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+      <c r="C2" s="11">
         <v>44136</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
+        <v>14</v>
+      </c>
+      <c r="C3" s="11">
         <v>44145</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="11">
         <v>44152</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>25</v>
+      <c r="A5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
         <v>44181</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="C8" s="7">
         <v>44136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
+        <v>27</v>
+      </c>
+      <c r="C9" s="11">
         <v>44132</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11">
         <v>44133</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11">
         <v>44134</v>
       </c>
-      <c r="D11" t="s">
-        <v>24</v>
+      <c r="D11" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11">
+        <v>44132</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44145</v>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="11">
+        <v>44133</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44134</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="11">
         <v>44138</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="11">
         <v>44139</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="D18" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="C16" s="2">
-        <v>44140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44165</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44150</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44138</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44152</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44139</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>44159</v>
-      </c>
-      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="11">
+        <v>44139</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="11">
+        <v>44140</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="11">
+        <v>44148</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="11">
+        <v>44149</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
+      <c r="C27" s="11">
+        <v>44148</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="11">
+        <v>44149</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="11">
+        <v>44149</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11">
+        <v>44150</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Milestone6+/Team_GSSK_Task_List.xlsx
+++ b/Milestone6+/Team_GSSK_Task_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karki\Documents\GitHub\Team-SoundsGood\Milestone6+\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CF2CE8-2F37-47AE-8238-3ECDB43479B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B3020-F544-44C5-BDA8-99B7E5A81CBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E802A6FB-4AA0-4E80-A6E5-1668C5ED8C86}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Milestones</t>
   </si>
@@ -124,13 +124,16 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +216,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +271,13 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -285,8 +300,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -296,8 +326,9 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -310,14 +341,16 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="8"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="9"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Accent2" xfId="6" builtinId="33"/>
     <cellStyle name="Accent4" xfId="7" builtinId="41"/>
     <cellStyle name="Accent6" xfId="8" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="9" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="4" builtinId="10"/>
@@ -632,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6908815F-E96C-4C22-B06D-E0318B3ABEAA}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +680,7 @@
     <col min="5" max="5" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -658,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -669,7 +702,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -680,7 +713,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -691,7 +724,7 @@
         <v>44152</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -702,7 +735,7 @@
         <v>44181</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -716,7 +749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -727,7 +760,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>27</v>
       </c>
@@ -738,7 +771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -748,8 +781,11 @@
       <c r="D10" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -759,8 +795,11 @@
       <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -771,7 +810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -782,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -792,11 +831,14 @@
       <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -807,7 +849,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>27</v>
       </c>
@@ -818,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -828,8 +870,11 @@
       <c r="D18" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -839,8 +884,11 @@
       <c r="D19" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -851,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>22</v>
       </c>
@@ -862,7 +910,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -872,11 +920,14 @@
       <c r="D22" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>28</v>
       </c>
@@ -887,7 +938,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>27</v>
       </c>
@@ -898,7 +949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -908,8 +959,11 @@
       <c r="D26" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -919,8 +973,11 @@
       <c r="D27" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -931,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>22</v>
       </c>
@@ -942,7 +999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -952,8 +1009,11 @@
       <c r="D30" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
